--- a/resources/Notes.xlsx
+++ b/resources/Notes.xlsx
@@ -4,61 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Local_setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Tips" sheetId="2" r:id="rId2"/>
-    <sheet name="AuthenticationBackend" sheetId="3" r:id="rId3"/>
+    <sheet name="Tips" sheetId="2" r:id="rId1"/>
+    <sheet name="AuthenticationBackend" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>Installed</t>
-  </si>
-  <si>
-    <t>Intellij</t>
-  </si>
-  <si>
-    <t>installed</t>
-  </si>
-  <si>
-    <t>AWS Account</t>
-  </si>
-  <si>
-    <t>Software/Credential</t>
-  </si>
-  <si>
-    <t>Setup done</t>
-  </si>
-  <si>
-    <t>tanspra@gmail.com
-Password : M@Aws</t>
-  </si>
-  <si>
-    <t>git local setup</t>
-  </si>
-  <si>
-    <t>https://docs.github.com/en/migrations/importing-source-code/using-the-command-line-to-import-source-code/adding-locally-hosted-code-to-github#adding-a-local-repository-to-github-using-git</t>
-  </si>
-  <si>
-    <t>fatal: refusing to merge unrelated histories</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git pull origin master --allow-unrelated-histories
- git push origin master
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Remove Activate WindowsWatermark</t>
   </si>
@@ -72,19 +29,7 @@
     <t>https://naveenautomationlabs.com/what-is-scope-under-dependency-in-pom-xml-for/#:~:text=The%20element%20can%20take,used%20for%20various%20build%20tasks.&amp;text=This%20is%20the%20default%20scope%2C%20used%20if%20none%20is%20specified.</t>
   </si>
   <si>
-    <t>Intellij Student License</t>
-  </si>
-  <si>
-    <t>1CTYKZ61N3</t>
-  </si>
-  <si>
     <t>AuthenticationBackend</t>
-  </si>
-  <si>
-    <t>git@github.com:tanspra/AuthenticationBackend.git</t>
-  </si>
-  <si>
-    <t>AuthenticationBackend repository</t>
   </si>
   <si>
     <t>mongo db user</t>
@@ -103,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,36 +56,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -148,42 +73,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,96 +379,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45">
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -584,19 +392,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -620,18 +428,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>9000</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="105">
-      <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
